--- a/rdm/nginx-data-analysis/IP信息.xlsx
+++ b/rdm/nginx-data-analysis/IP信息.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\python\rdm\rdm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\python\rdm-202505\rdm-20250521\rdm\nginx-data-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5D51757-2198-4945-9999-217A3767FDF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9507566-A6E9-48BF-A393-83DBAF90AD65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,24 +16,11 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="170">
   <si>
     <t>工号</t>
   </si>
@@ -564,13 +551,21 @@
   </si>
   <si>
     <t>192.168.22.202</t>
+  </si>
+  <si>
+    <t>刘丰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">192.168.146.123 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -587,6 +582,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -649,7 +652,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -677,6 +680,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -954,10 +960,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:C58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="I50" sqref="I50"/>
+      <selection activeCell="K59" sqref="K59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1592,9 +1598,20 @@
         <v>167</v>
       </c>
     </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="3">
+        <v>2065</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>169</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/rdm/nginx-data-analysis/IP信息.xlsx
+++ b/rdm/nginx-data-analysis/IP信息.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\python\rdm-202505\rdm-20250521\rdm\nginx-data-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9507566-A6E9-48BF-A393-83DBAF90AD65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B45FF1-44A5-4888-8A14-A6B834F81059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -963,7 +963,7 @@
   <dimension ref="A1:C58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="K59" sqref="K59"/>
+      <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1379,234 +1379,234 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="3">
+        <v>2065</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B39" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C39" s="10" t="s">
         <v>113</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B49" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C49" s="4" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="6" t="s">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B50" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C50" s="4" t="s">
         <v>146</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B55" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C55" s="3" t="s">
         <v>161</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="3">
-        <v>1083</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
-        <v>1020</v>
+        <v>1083</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
-        <v>1386</v>
+        <v>1020</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
-        <v>2065</v>
+        <v>1386</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C58" s="11" t="s">
-        <v>169</v>
+        <v>166</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/rdm/nginx-data-analysis/IP信息.xlsx
+++ b/rdm/nginx-data-analysis/IP信息.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\python\rdm-202505\rdm-20250521\rdm\nginx-data-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B45FF1-44A5-4888-8A14-A6B834F81059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD7C19C-7CBF-4576-8DE7-72EA00CAE81E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="152">
   <si>
     <t>工号</t>
   </si>
@@ -76,15 +76,6 @@
     <t>192.168.170.75</t>
   </si>
   <si>
-    <t>2248</t>
-  </si>
-  <si>
-    <t>孙爽</t>
-  </si>
-  <si>
-    <t>192.168.146.48</t>
-  </si>
-  <si>
     <t>2232</t>
   </si>
   <si>
@@ -103,24 +94,6 @@
     <t>192.168.146.93</t>
   </si>
   <si>
-    <t>10247</t>
-  </si>
-  <si>
-    <t>邓子豪</t>
-  </si>
-  <si>
-    <t>192.168.170.190</t>
-  </si>
-  <si>
-    <t>10246</t>
-  </si>
-  <si>
-    <t>姚周</t>
-  </si>
-  <si>
-    <t>192.168.170.155</t>
-  </si>
-  <si>
     <t>1588</t>
   </si>
   <si>
@@ -139,15 +112,6 @@
     <t>192.168.22.47</t>
   </si>
   <si>
-    <t>10248</t>
-  </si>
-  <si>
-    <t>刘惠承</t>
-  </si>
-  <si>
-    <t>192.168.170.76</t>
-  </si>
-  <si>
     <t>0572</t>
   </si>
   <si>
@@ -326,24 +290,6 @@
   </si>
   <si>
     <t>192.168.146.217</t>
-  </si>
-  <si>
-    <t>1719</t>
-  </si>
-  <si>
-    <t>郭帅</t>
-  </si>
-  <si>
-    <t>192.168.22.177</t>
-  </si>
-  <si>
-    <t>1821</t>
-  </si>
-  <si>
-    <t>王会闯</t>
-  </si>
-  <si>
-    <t>192.168.22.65</t>
   </si>
   <si>
     <t>2253</t>
@@ -960,10 +906,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C58"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H52" sqref="H52"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1093,13 +1039,13 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="4" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1110,7 +1056,7 @@
       <c r="B13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="4" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1137,13 +1083,13 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1154,7 +1100,7 @@
       <c r="B17" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1187,7 +1133,7 @@
       <c r="B20" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="4" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1214,57 +1160,57 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="8" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="10" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="10" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="10" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1275,7 +1221,7 @@
       <c r="B28" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="10" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1313,90 +1259,90 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>95</v>
+      <c r="A32" s="3">
+        <v>2065</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B34" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C34" s="4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="9" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B35" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C35" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="9" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B36" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C36" s="4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="9" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B37" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C37" s="4" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="9" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B38" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C38" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="3">
-        <v>2065</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>169</v>
-      </c>
-    </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="9" t="s">
+      <c r="A39" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C39" s="4" t="s">
         <v>113</v>
       </c>
     </row>
@@ -1445,10 +1391,10 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C44" s="4" t="s">
@@ -1484,7 +1430,7 @@
       <c r="B47" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" s="3" t="s">
         <v>137</v>
       </c>
     </row>
@@ -1495,7 +1441,7 @@
       <c r="B48" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C48" s="3" t="s">
         <v>140</v>
       </c>
     </row>
@@ -1506,107 +1452,41 @@
       <c r="B49" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" s="3" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="6" t="s">
+      <c r="A50" s="3">
+        <v>1083</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="C50" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C50" s="4" t="s">
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="3">
+        <v>1020</v>
+      </c>
+      <c r="B51" s="3" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
+      <c r="C51" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B51" s="3" t="s">
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="3">
+        <v>1386</v>
+      </c>
+      <c r="B52" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C52" s="3" t="s">
         <v>149</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="3">
-        <v>1083</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="3">
-        <v>1020</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="3">
-        <v>1386</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/rdm/nginx-data-analysis/IP信息.xlsx
+++ b/rdm/nginx-data-analysis/IP信息.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\python\rdm-202505\rdm-20250521\rdm\nginx-data-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD7C19C-7CBF-4576-8DE7-72EA00CAE81E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C24E3B-6882-40AF-B247-F31A78104B4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="154">
   <si>
     <t>工号</t>
   </si>
@@ -49,15 +49,6 @@
     <t>192.168.146.21</t>
   </si>
   <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>李谦</t>
-  </si>
-  <si>
-    <t>192.168.146.183</t>
-  </si>
-  <si>
     <t>2231</t>
   </si>
   <si>
@@ -101,12 +92,6 @@
   </si>
   <si>
     <t>192.168.170.44</t>
-  </si>
-  <si>
-    <t>2222</t>
-  </si>
-  <si>
-    <t>阳家亮</t>
   </si>
   <si>
     <t>192.168.22.47</t>
@@ -505,6 +490,27 @@
   <si>
     <t xml:space="preserve">192.168.146.123 </t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈嘉杰</t>
+  </si>
+  <si>
+    <t>192.168.170.76</t>
+  </si>
+  <si>
+    <t>孟凡祥</t>
+  </si>
+  <si>
+    <t>192.168.22.53</t>
+  </si>
+  <si>
+    <t>陈浩</t>
+  </si>
+  <si>
+    <t>192.168.176.241</t>
+  </si>
+  <si>
+    <t>陈远锐</t>
   </si>
 </sst>
 </file>
@@ -906,10 +912,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -957,7 +963,7 @@
       <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="5" t="s">
         <v>11</v>
       </c>
     </row>
@@ -968,7 +974,7 @@
       <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1007,486 +1013,508 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>10263</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>10255</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>10256</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>10265</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="3" t="s">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="B14" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="C14" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>44</v>
+        <v>32</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>59</v>
+        <v>47</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>63</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>77</v>
+        <v>65</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="3">
-        <v>2065</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>151</v>
+      <c r="A32" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>96</v>
+      <c r="A34" s="3">
+        <v>2065</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>98</v>
+        <v>145</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>101</v>
+      <c r="A35" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>127</v>
+      <c r="A44" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>133</v>
+      <c r="A46" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>137</v>
+        <v>125</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>140</v>
+        <v>128</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="3">
-        <v>1083</v>
+      <c r="A50" s="2" t="s">
+        <v>133</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="3">
-        <v>1020</v>
+      <c r="A51" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
+        <v>1083</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="3">
+        <v>1020</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="3">
         <v>1386</v>
       </c>
-      <c r="B52" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>149</v>
+      <c r="B54" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/rdm/nginx-data-analysis/IP信息.xlsx
+++ b/rdm/nginx-data-analysis/IP信息.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\python\rdm-202505\rdm-20250521\rdm\nginx-data-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C24E3B-6882-40AF-B247-F31A78104B4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A2D177F-4B77-41A8-9659-290B25721FEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="160">
   <si>
     <t>工号</t>
   </si>
@@ -511,6 +511,30 @@
   </si>
   <si>
     <t>陈远锐</t>
+  </si>
+  <si>
+    <t>王超亚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.22.62</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10258</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈旭阳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10259</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.22.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -562,7 +586,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -600,11 +624,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -635,6 +672,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -912,10 +958,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1298,222 +1344,244 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="13" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>93</v>
+      <c r="A36" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>96</v>
+      <c r="A37" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>122</v>
+      <c r="A46" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>128</v>
+      <c r="A48" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>132</v>
+        <v>125</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>135</v>
+        <v>128</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B53" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C53" s="3" t="s">
         <v>138</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="3">
-        <v>1083</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="3">
-        <v>1020</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
+        <v>1083</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="3">
+        <v>1020</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="3">
         <v>1386</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B56" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C56" s="3" t="s">
         <v>144</v>
       </c>
     </row>
